--- a/BTH/new/contribution_analysis_rev.xlsx
+++ b/BTH/new/contribution_analysis_rev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\BTH\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE7E00-59BF-4CAF-AA1F-85DC50436E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1AD354-DDC8-4DCB-B50E-018BFBE58B36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bj_detail" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="tj_overall" sheetId="5" r:id="rId5"/>
     <sheet name="hb_overall" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
@@ -274,7 +271,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -288,7 +285,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5264,365 +5261,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="bj_detail"/>
-      <sheetName val="tj_detail"/>
-      <sheetName val="hb_detail"/>
-      <sheetName val="bj_overall"/>
-      <sheetName val="tj_overall"/>
-      <sheetName val="hb_overall"/>
-      <sheetName val="分析"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="365">
-          <cell r="B365" t="str">
-            <v>PM2.5_Sim</v>
-          </cell>
-          <cell r="C365" t="str">
-            <v>PM2.5_Bias_ystd</v>
-          </cell>
-          <cell r="D365" t="str">
-            <v>NO2_Bias</v>
-          </cell>
-          <cell r="E365" t="str">
-            <v>SO2_Bias</v>
-          </cell>
-          <cell r="F365" t="str">
-            <v>NO2_Obs</v>
-          </cell>
-          <cell r="G365" t="str">
-            <v>SO2_Obs</v>
-          </cell>
-          <cell r="H365" t="str">
-            <v>RH_Bias</v>
-          </cell>
-          <cell r="I365" t="str">
-            <v>TEM_Bias</v>
-          </cell>
-          <cell r="J365" t="str">
-            <v>WIN_N_Bias</v>
-          </cell>
-          <cell r="K365" t="str">
-            <v>WIN_E_Bias</v>
-          </cell>
-          <cell r="L365" t="str">
-            <v>PRE_Bias</v>
-          </cell>
-          <cell r="M365" t="str">
-            <v>RH_Obs</v>
-          </cell>
-          <cell r="N365" t="str">
-            <v>TEM_Obs</v>
-          </cell>
-          <cell r="O365" t="str">
-            <v>WSPD_Obs</v>
-          </cell>
-          <cell r="P365" t="str">
-            <v>PRE_Obs</v>
-          </cell>
-          <cell r="Q365" t="str">
-            <v>PBLH_Sim</v>
-          </cell>
-          <cell r="R365" t="str">
-            <v>SOLRAD_Sim</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="A366" t="str">
-            <v>(,75)</v>
-          </cell>
-          <cell r="B366">
-            <v>3.6900900900900901</v>
-          </cell>
-          <cell r="C366">
-            <v>9.6373873873873812</v>
-          </cell>
-          <cell r="D366">
-            <v>2.5711711711711707</v>
-          </cell>
-          <cell r="E366">
-            <v>10.263963963963961</v>
-          </cell>
-          <cell r="F366">
-            <v>4.5689189189189188</v>
-          </cell>
-          <cell r="G366">
-            <v>7.5387387387387363</v>
-          </cell>
-          <cell r="H366">
-            <v>4.3378378378378386</v>
-          </cell>
-          <cell r="I366">
-            <v>2.8869369369369378</v>
-          </cell>
-          <cell r="J366">
-            <v>16.357207207207214</v>
-          </cell>
-          <cell r="K366">
-            <v>4.4049549549549551</v>
-          </cell>
-          <cell r="L366">
-            <v>2.436036036036036</v>
-          </cell>
-          <cell r="M366">
-            <v>1.6364864864864872</v>
-          </cell>
-          <cell r="N366">
-            <v>4.0806306306306297</v>
-          </cell>
-          <cell r="O366">
-            <v>17.734684684684687</v>
-          </cell>
-          <cell r="P366">
-            <v>4.6387387387387351</v>
-          </cell>
-          <cell r="Q366">
-            <v>1.7959459459459457</v>
-          </cell>
-          <cell r="R366">
-            <v>1.4333333333333316</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="A367" t="str">
-            <v>[75,115)</v>
-          </cell>
-          <cell r="B367">
-            <v>3.8830508474576266</v>
-          </cell>
-          <cell r="C367">
-            <v>10.028813559322035</v>
-          </cell>
-          <cell r="D367">
-            <v>2.3898305084745766</v>
-          </cell>
-          <cell r="E367">
-            <v>8.0084745762711886</v>
-          </cell>
-          <cell r="F367">
-            <v>4.9677966101694908</v>
-          </cell>
-          <cell r="G367">
-            <v>7.2186440677966095</v>
-          </cell>
-          <cell r="H367">
-            <v>4.0949152542372893</v>
-          </cell>
-          <cell r="I367">
-            <v>3.0796610169491525</v>
-          </cell>
-          <cell r="J367">
-            <v>16.867796610169489</v>
-          </cell>
-          <cell r="K367">
-            <v>4.3847457627118631</v>
-          </cell>
-          <cell r="L367">
-            <v>2.9745762711864403</v>
-          </cell>
-          <cell r="M367">
-            <v>1.4084745762711861</v>
-          </cell>
-          <cell r="N367">
-            <v>5.0322033898305083</v>
-          </cell>
-          <cell r="O367">
-            <v>15.832203389830511</v>
-          </cell>
-          <cell r="P367">
-            <v>5.9711864406779682</v>
-          </cell>
-          <cell r="Q367">
-            <v>2.3966101694915256</v>
-          </cell>
-          <cell r="R367">
-            <v>1.4677966101694921</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="A368" t="str">
-            <v>[115,150)</v>
-          </cell>
-          <cell r="B368">
-            <v>4.6906976744186029</v>
-          </cell>
-          <cell r="C368">
-            <v>7.8720930232558164</v>
-          </cell>
-          <cell r="D368">
-            <v>2.2162790697674413</v>
-          </cell>
-          <cell r="E368">
-            <v>8.0023255813953487</v>
-          </cell>
-          <cell r="F368">
-            <v>5.0395348837209299</v>
-          </cell>
-          <cell r="G368">
-            <v>5.2651162790697672</v>
-          </cell>
-          <cell r="H368">
-            <v>4.3395348837209298</v>
-          </cell>
-          <cell r="I368">
-            <v>3.1395348837209296</v>
-          </cell>
-          <cell r="J368">
-            <v>16.051162790697667</v>
-          </cell>
-          <cell r="K368">
-            <v>5.2906976744186034</v>
-          </cell>
-          <cell r="L368">
-            <v>3.5697674418604652</v>
-          </cell>
-          <cell r="M368">
-            <v>1.7186046511627902</v>
-          </cell>
-          <cell r="N368">
-            <v>4.2906976744186043</v>
-          </cell>
-          <cell r="O368">
-            <v>18.639534883720934</v>
-          </cell>
-          <cell r="P368">
-            <v>5.1209302325581412</v>
-          </cell>
-          <cell r="Q368">
-            <v>2.2906976744186047</v>
-          </cell>
-          <cell r="R368">
-            <v>2.4534883720930232</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="A369" t="str">
-            <v>[150,250)</v>
-          </cell>
-          <cell r="B369">
-            <v>5.45</v>
-          </cell>
-          <cell r="C369">
-            <v>6.242857142857142</v>
-          </cell>
-          <cell r="D369">
-            <v>2.8142857142857145</v>
-          </cell>
-          <cell r="E369">
-            <v>3.2285714285714282</v>
-          </cell>
-          <cell r="F369">
-            <v>6.6428571428571441</v>
-          </cell>
-          <cell r="G369">
-            <v>3.7428571428571429</v>
-          </cell>
-          <cell r="H369">
-            <v>2.4249999999999994</v>
-          </cell>
-          <cell r="I369">
-            <v>2.5571428571428574</v>
-          </cell>
-          <cell r="J369">
-            <v>18.114285714285714</v>
-          </cell>
-          <cell r="K369">
-            <v>5.7499999999999991</v>
-          </cell>
-          <cell r="L369">
-            <v>4.6142857142857139</v>
-          </cell>
-          <cell r="M369">
-            <v>3.2178571428571421</v>
-          </cell>
-          <cell r="N369">
-            <v>5.2357142857142884</v>
-          </cell>
-          <cell r="O369">
-            <v>18.767857142857142</v>
-          </cell>
-          <cell r="P369">
-            <v>6.5857142857142872</v>
-          </cell>
-          <cell r="Q369">
-            <v>1.9321428571428574</v>
-          </cell>
-          <cell r="R369">
-            <v>2.6928571428571431</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="A370" t="str">
-            <v>[250,)</v>
-          </cell>
-          <cell r="B370">
-            <v>5.5090909090909088</v>
-          </cell>
-          <cell r="C370">
-            <v>3.2181818181818183</v>
-          </cell>
-          <cell r="D370">
-            <v>4.1000000000000005</v>
-          </cell>
-          <cell r="E370">
-            <v>3.9818181818181824</v>
-          </cell>
-          <cell r="F370">
-            <v>8.0181818181818176</v>
-          </cell>
-          <cell r="G370">
-            <v>4.4363636363636365</v>
-          </cell>
-          <cell r="H370">
-            <v>1.781818181818182</v>
-          </cell>
-          <cell r="I370">
-            <v>2.081818181818182</v>
-          </cell>
-          <cell r="J370">
-            <v>19.16363636363636</v>
-          </cell>
-          <cell r="K370">
-            <v>4.1181818181818182</v>
-          </cell>
-          <cell r="L370">
-            <v>3.5545454545454542</v>
-          </cell>
-          <cell r="M370">
-            <v>5.7727272727272725</v>
-          </cell>
-          <cell r="N370">
-            <v>5.5545454545454538</v>
-          </cell>
-          <cell r="O370">
-            <v>19.681818181818183</v>
-          </cell>
-          <cell r="P370">
-            <v>4.3090909090909086</v>
-          </cell>
-          <cell r="Q370">
-            <v>1.5090909090909093</v>
-          </cell>
-          <cell r="R370">
-            <v>3.2272727272727271</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -5946,7 +5584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U371"/>
   <sheetViews>
-    <sheetView topLeftCell="A356" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="L411" sqref="L411"/>
     </sheetView>
   </sheetViews>
@@ -54277,13 +53915,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:S364">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>RANK(B2,$B2:$S2)=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>RANK(B2,$B2:$S2)=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>RANK(B2,$B2:$S2)=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54296,7 +53934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5061D12-2F6E-4546-A916-649C5E7F4611}">
   <dimension ref="A1:U371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A369" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Y382" sqref="Y382"/>
     </sheetView>
   </sheetViews>
